--- a/nofault/nofault_data/data_nofault_f.xlsx
+++ b/nofault/nofault_data/data_nofault_f.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/nofault/nofault_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70531BCC-B1CA-2744-B27F-B1B9F4716F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B65DD6-56CE-BB42-B060-DED37B98C16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="2120" windowWidth="14440" windowHeight="17440" xr2:uid="{67D01AB0-086D-E146-899F-40676281BA95}"/>
+    <workbookView xWindow="18400" yWindow="2180" windowWidth="14440" windowHeight="17440" xr2:uid="{67D01AB0-086D-E146-899F-40676281BA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB324E81-EEF2-CF4F-BAAB-5AF8DD5663BE}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -463,22 +463,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>497</v>
+        <v>690</v>
       </c>
       <c r="F2" s="1">
-        <v>100578</v>
+        <v>336302</v>
       </c>
       <c r="G2" s="1">
-        <v>32725567</v>
+        <v>140567429</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -486,22 +486,22 @@
         <v>100</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>520</v>
+        <v>647</v>
       </c>
       <c r="F3" s="1">
-        <v>133887</v>
+        <v>234129</v>
       </c>
       <c r="G3" s="1">
-        <v>54337830</v>
+        <v>144300069</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -509,22 +509,22 @@
         <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>508</v>
+        <v>671</v>
       </c>
       <c r="F4" s="1">
-        <v>117438</v>
+        <v>219132</v>
       </c>
       <c r="G4" s="1">
-        <v>30415547</v>
+        <v>151190081</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -532,7 +532,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -541,13 +541,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>500</v>
+        <v>662</v>
       </c>
       <c r="F5" s="1">
-        <v>109021</v>
+        <v>169836</v>
       </c>
       <c r="G5" s="1">
-        <v>27945912</v>
+        <v>120149972</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -555,22 +555,22 @@
         <v>100</v>
       </c>
       <c r="B6" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>487</v>
+        <v>676</v>
       </c>
       <c r="F6" s="1">
-        <v>103134</v>
+        <v>189773</v>
       </c>
       <c r="G6" s="1">
-        <v>27571280</v>
+        <v>92043398</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -578,22 +578,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>481</v>
+        <v>652</v>
       </c>
       <c r="F7" s="1">
-        <v>105833</v>
+        <v>167160</v>
       </c>
       <c r="G7" s="1">
-        <v>27659904</v>
+        <v>90632388</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -601,22 +601,22 @@
         <v>100</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>481</v>
+        <v>656</v>
       </c>
       <c r="F8" s="1">
-        <v>93655</v>
+        <v>171799</v>
       </c>
       <c r="G8" s="1">
-        <v>26859301</v>
+        <v>85816395</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -624,32 +624,78 @@
         <v>100</v>
       </c>
       <c r="B9" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1">
-        <v>500</v>
+        <v>3.3</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>486</v>
+        <v>664</v>
       </c>
       <c r="F9" s="1">
-        <v>93123</v>
+        <v>169979</v>
       </c>
       <c r="G9" s="1">
-        <v>27750314</v>
+        <v>98406925</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>710</v>
+      </c>
+      <c r="F10" s="1">
+        <v>241538</v>
+      </c>
+      <c r="G10" s="1">
+        <v>87904992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>657</v>
+      </c>
+      <c r="F11" s="1">
+        <v>170449</v>
+      </c>
+      <c r="G11" s="1">
+        <v>88013532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/nofault/nofault_data/data_nofault_f.xlsx
+++ b/nofault/nofault_data/data_nofault_f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fguo/Documents/GitHub/SimpleStorageSystem/nofault/nofault_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B65DD6-56CE-BB42-B060-DED37B98C16D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF41EC2B-7552-0840-9AAE-EDB744882005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="2180" windowWidth="14440" windowHeight="17440" xr2:uid="{67D01AB0-086D-E146-899F-40676281BA95}"/>
+    <workbookView xWindow="18060" yWindow="1060" windowWidth="14440" windowHeight="17440" xr2:uid="{67D01AB0-086D-E146-899F-40676281BA95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,11 +427,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -472,13 +473,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>690</v>
+        <v>1558</v>
       </c>
       <c r="F2" s="1">
-        <v>336302</v>
+        <v>37316176</v>
       </c>
       <c r="G2" s="1">
-        <v>140567429</v>
+        <v>96447492</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -495,13 +496,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>647</v>
+        <v>1567</v>
       </c>
       <c r="F3" s="1">
-        <v>234129</v>
+        <v>38342720</v>
       </c>
       <c r="G3" s="1">
-        <v>144300069</v>
+        <v>112026199</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -518,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>671</v>
+        <v>1468</v>
       </c>
       <c r="F4" s="1">
-        <v>219132</v>
+        <v>35654576</v>
       </c>
       <c r="G4" s="1">
-        <v>151190081</v>
+        <v>110866334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -541,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>662</v>
+        <v>1564</v>
       </c>
       <c r="F5" s="1">
-        <v>169836</v>
+        <v>38302544</v>
       </c>
       <c r="G5" s="1">
-        <v>120149972</v>
+        <v>88241881</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -564,13 +565,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>676</v>
+        <v>1513</v>
       </c>
       <c r="F6" s="1">
-        <v>189773</v>
+        <v>36836608</v>
       </c>
       <c r="G6" s="1">
-        <v>92043398</v>
+        <v>91482447</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -587,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>652</v>
+        <v>1521</v>
       </c>
       <c r="F7" s="1">
-        <v>167160</v>
+        <v>36946080</v>
       </c>
       <c r="G7" s="1">
-        <v>90632388</v>
+        <v>98949647</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -610,13 +611,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>656</v>
+        <v>1614</v>
       </c>
       <c r="F8" s="1">
-        <v>171799</v>
+        <v>38319320</v>
       </c>
       <c r="G8" s="1">
-        <v>85816395</v>
+        <v>79650292</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -633,60 +634,32 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>664</v>
+        <v>1536</v>
       </c>
       <c r="F9" s="1">
-        <v>169979</v>
+        <v>37098904</v>
       </c>
       <c r="G9" s="1">
-        <v>98406925</v>
+        <v>102882794</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>710</v>
-      </c>
-      <c r="F10" s="1">
-        <v>241538</v>
-      </c>
-      <c r="G10" s="1">
-        <v>87904992</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>100</v>
-      </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>657</v>
-      </c>
-      <c r="F11" s="1">
-        <v>170449</v>
-      </c>
-      <c r="G11" s="1">
-        <v>88013532</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1"/>
